--- a/bin/sheets/main_db/teams/SRL/PlayerPerformance_3628.xlsx
+++ b/bin/sheets/main_db/teams/SRL/PlayerPerformance_3628.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17800,10 +17801,6 @@
           <t>4188</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -17876,10 +17873,6 @@
           <t>4302</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>NO</t>
@@ -17905,7 +17898,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>NO</t>
@@ -17931,7 +17923,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>NO</t>
@@ -18094,10 +18085,6 @@
           <t>4356</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
           <t>NO</t>
@@ -18110,181 +18097,445 @@
           <t>4357</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4358</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4413</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1.72%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4414</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4417</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>5</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>3.91%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4449</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>4</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2.16%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4735</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>4</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>23.68%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4745</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3901</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3902</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3904</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3908</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3910</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3923</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3924</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3927</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4061</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4062</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4063</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4064</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4065</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4358</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>4096</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4413</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>5</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>1.72%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+          <t>4098</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4414</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
+          <t>4099</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4417</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>5</v>
+          <t>4344</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>3.91%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>YES</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4449</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>4</v>
-      </c>
-      <c r="C19" t="inlineStr">
+          <t>4413</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>2.16%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4735</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>4</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>23.68%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+          <t>4414</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4745</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>4417</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>40.00%</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/SRL/PlayerPerformance_3628.xlsx
+++ b/bin/sheets/main_db/teams/SRL/PlayerPerformance_3628.xlsx
@@ -1,17 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -870,6 +868,7 @@
           <t>7</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>31/07/2009</t>
@@ -917,6 +916,7 @@
           <t>8</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>03/08/2009</t>
@@ -1536,6 +1536,7 @@
           <t>20</t>
         </is>
       </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>09/06/2010</t>
@@ -1687,6 +1688,7 @@
           <t>23</t>
         </is>
       </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
           <t>22/06/2010</t>
@@ -1890,6 +1892,7 @@
           <t>27</t>
         </is>
       </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
           <t>20/08/2010</t>
@@ -1937,6 +1940,7 @@
           <t>28</t>
         </is>
       </c>
+      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
           <t>21/08/2010</t>
@@ -2192,6 +2196,7 @@
           <t>33</t>
         </is>
       </c>
+      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
           <t>31/01/2011</t>
@@ -2204,7 +2209,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2239,6 +2244,7 @@
           <t>34</t>
         </is>
       </c>
+      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
           <t>03/02/2011</t>
@@ -2442,6 +2448,7 @@
           <t>38</t>
         </is>
       </c>
+      <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
           <t>01/03/2011</t>
@@ -2489,6 +2496,7 @@
           <t>39</t>
         </is>
       </c>
+      <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
           <t>05/03/2011</t>
@@ -2640,6 +2648,7 @@
           <t>42</t>
         </is>
       </c>
+      <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
           <t>26/03/2011</t>
@@ -3935,6 +3944,7 @@
           <t>67</t>
         </is>
       </c>
+      <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr">
         <is>
           <t>17/02/2012</t>
@@ -4242,6 +4252,7 @@
           <t>73</t>
         </is>
       </c>
+      <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr">
         <is>
           <t>09/06/2012</t>
@@ -4289,6 +4300,7 @@
           <t>74</t>
         </is>
       </c>
+      <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr">
         <is>
           <t>13/06/2012</t>
@@ -4301,7 +4313,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4492,6 +4504,7 @@
           <t>78</t>
         </is>
       </c>
+      <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr">
         <is>
           <t>24/07/2012</t>
@@ -4955,6 +4968,7 @@
           <t>87</t>
         </is>
       </c>
+      <c r="B88" t="inlineStr"/>
       <c r="C88" t="inlineStr">
         <is>
           <t>13/01/2013</t>
@@ -5054,6 +5068,7 @@
           <t>89</t>
         </is>
       </c>
+      <c r="B90" t="inlineStr"/>
       <c r="C90" t="inlineStr">
         <is>
           <t>20/01/2013</t>
@@ -5153,6 +5168,7 @@
           <t>91</t>
         </is>
       </c>
+      <c r="B92" t="inlineStr"/>
       <c r="C92" t="inlineStr">
         <is>
           <t>23/03/2013</t>
@@ -5200,6 +5216,7 @@
           <t>92</t>
         </is>
       </c>
+      <c r="B93" t="inlineStr"/>
       <c r="C93" t="inlineStr">
         <is>
           <t>25/03/2013</t>
@@ -5351,6 +5368,7 @@
           <t>95</t>
         </is>
       </c>
+      <c r="B96" t="inlineStr"/>
       <c r="C96" t="inlineStr">
         <is>
           <t>13/06/2013</t>
@@ -5814,6 +5832,7 @@
           <t>104</t>
         </is>
       </c>
+      <c r="B105" t="inlineStr"/>
       <c r="C105" t="inlineStr">
         <is>
           <t>28/07/2013</t>
@@ -5965,6 +5984,7 @@
           <t>107</t>
         </is>
       </c>
+      <c r="B108" t="inlineStr"/>
       <c r="C108" t="inlineStr">
         <is>
           <t>12/11/2013</t>
@@ -7676,6 +7696,7 @@
           <t>140</t>
         </is>
       </c>
+      <c r="B141" t="inlineStr"/>
       <c r="C141" t="inlineStr">
         <is>
           <t>29/11/2014</t>
@@ -8087,6 +8108,7 @@
           <t>148</t>
         </is>
       </c>
+      <c r="B149" t="inlineStr"/>
       <c r="C149" t="inlineStr">
         <is>
           <t>17/01/2015</t>
@@ -8099,7 +8121,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -8290,6 +8312,7 @@
           <t>152</t>
         </is>
       </c>
+      <c r="B153" t="inlineStr"/>
       <c r="C153" t="inlineStr">
         <is>
           <t>26/02/2015</t>
@@ -8337,6 +8360,7 @@
           <t>153</t>
         </is>
       </c>
+      <c r="B154" t="inlineStr"/>
       <c r="C154" t="inlineStr">
         <is>
           <t>01/03/2015</t>
@@ -8852,6 +8876,7 @@
           <t>163</t>
         </is>
       </c>
+      <c r="B164" t="inlineStr"/>
       <c r="C164" t="inlineStr">
         <is>
           <t>04/11/2015</t>
@@ -9055,6 +9080,7 @@
           <t>167</t>
         </is>
       </c>
+      <c r="B168" t="inlineStr"/>
       <c r="C168" t="inlineStr">
         <is>
           <t>31/12/2015</t>
@@ -9102,6 +9128,7 @@
           <t>168</t>
         </is>
       </c>
+      <c r="B169" t="inlineStr"/>
       <c r="C169" t="inlineStr">
         <is>
           <t>02/01/2016</t>
@@ -9114,7 +9141,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -9981,6 +10008,7 @@
           <t>185</t>
         </is>
       </c>
+      <c r="B186" t="inlineStr"/>
       <c r="C186" t="inlineStr">
         <is>
           <t>06/07/2017</t>
@@ -17747,799 +17775,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4188</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4193</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>5</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>12.90%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4195</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>5</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>13.92%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4302</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4305</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>6</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4309</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4322</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>5</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>3.64%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4331</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>5</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>36.64%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4339</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>5</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>5.42%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4344</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>7.69%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4350</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>5</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>42.80%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4356</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4357</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4358</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4413</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>5</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>1.72%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4414</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4417</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>5</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>3.91%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4449</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>4</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>2.16%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4735</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>4</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>23.68%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4745</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>3901</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>3902</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3904</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>3908</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>3910</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>3923</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>3924</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>3927</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4061</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4062</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4063</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4064</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4065</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4096</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4098</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4099</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4344</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4413</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4414</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4417</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>40.00%</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>